--- a/APITesting/APITesting/Test Plan Test Log Template API Tests.xlsx
+++ b/APITesting/APITesting/Test Plan Test Log Template API Tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanm\Desktop\SET_DIPLOMA\APITesting\APITesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan McKee\Desktop\SET_DIPLOMA\APITesting\APITesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147D4F3B-0207-495D-BB80-36D4738F29EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CFC5D8-B911-4A87-B74B-7D86807013EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan Staff API GET" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Test Plan</t>
   </si>
@@ -107,66 +107,1000 @@
     <t>Ensure that the management tabe contains the original three records.</t>
   </si>
   <si>
-    <t>1.1 /get_all_staff</t>
-  </si>
-  <si>
-    <t>1.1 status code 200 returned and 3 rows returned and that the records contain the correct employees</t>
-  </si>
-  <si>
-    <t>Ensure that staff can be retrieved by their id</t>
-  </si>
-  <si>
     <t>Ensure that a new staff member can be added.</t>
   </si>
   <si>
-    <t>1.1. Response code should be 200 and record number should be updated by 1 and should have the correct data.</t>
-  </si>
-  <si>
     <t>Ensure that a staff member can be updated.</t>
   </si>
   <si>
-    <t>1.1 Response code: 200 and record 4 should be updated with request body information.</t>
-  </si>
-  <si>
-    <t>4.1 PUT: /update-staff/4
-Request body:
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> status code 200 returned and 3 rows returned and that the records contain the correct employees PT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Response code should be 200 and record number should be updated by 1 and should have the correct data. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Response code should be 500 representing an internal server error due to request body not containing all required data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. PUT: /update-staff/4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Request body:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 {
 "forename":"Cassien",
 "surname":"Andor",
 "deptNumber":501
-}</t>
-  </si>
-  <si>
-    <t>3.1. POST: /add-new-staff-member 
-Request Body: 
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. PUT:/update-staff/4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Request body:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+"forename":"Michael",
+"surname":"Schumacer",
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. PUT: /update-staff/20 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Request body:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+"forename":"Cassien",
+"surname":"Andor",
+"deptNumber":501
+}
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DELETE: /delete-staff/4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DELETE: /detete-staff/5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5.1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Response code should be 200 and record number should be 1 less than before.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Response code 500 should be returned at no record with 5 manager id exists.</t>
+    </r>
+  </si>
+  <si>
+    <t>PT: Positive test</t>
+  </si>
+  <si>
+    <t>NT: Negative test</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. GET: /get-staff/1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. GET: /get-staff/3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GET: /get-staff/0 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GET: /get-staff/4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GET: /get-staff/test </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Response code: 200 and record 4 should be updated with request body information. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Response code: 500 internal server error as not all information given in request body to perform the put operation. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Response code: 500 internal server error as pathVaraible in the get request contains a manager id that does not exist in the database. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Ensure that staff can be retrieved using their management number.</t>
+  </si>
+  <si>
+    <t>Ensure a staff member can be deleted.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> status code 200 should be returned with managerNumber:  1, forename: Mary, surname: Bloggs and deptNumber: 111.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. status code 200 should be returned with managerNumber 3, forename: Pat, surName: Smith and deptNumber 111.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 500 response code returned (internal server error indicating that 0 id does not exist in database.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Response code should be 500 indicating an internal server error due to staff with managerNumber 4 not existing in the database.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 400 response bad request showing that the datatype is incorrect for tha path varaible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. POST: /add-new-staff-member </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Request Body: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 {
  "forename": "Andreas",
 "surname":"Ineista",
 "deptNumber":592
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> POST: /add-new-staff-member </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Request body:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+ "forename": "Simon",
+"deptNumber":592
 }</t>
-  </si>
-  <si>
-    <t>2.1. GET: /get-staff/1 PT BVA
-2.2. GET: /get-staff/3 PT BVA
-2.3. GET: /get-staff/0 NT BVA
-2.4. GET: /get-staff/4 NT BVA
-2.5. GET: /get-staff/test NT TT</t>
-  </si>
-  <si>
-    <t>2.1. status code 200 should be returned with managerNumber:  1, forename: Mary, surname: Bloggs and deptNumber: 111
-2.2. status code 200 should be returned with managerNumber 3, forename: Pat, surName: Smith and deptNumber 111
-2.3. 500 response code returned (internal server error indicating that 0 id does not exist in database
-2.4 500
-2.5 400 response bad request showing that the datatype is incorrect for tha path varaible</t>
-  </si>
-  <si>
-    <t>Ensure a staff member record can be deleted.</t>
-  </si>
-  <si>
-    <t>5.1 DELETE: /delete-staff/4</t>
-  </si>
-  <si>
-    <t>1.1. Response code should be 200 and record number should be 1 less than before.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GET:/get_all_staff PT</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -176,7 +1110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,13 +1141,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -364,63 +1363,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -439,6 +1384,18 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -451,37 +1408,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -764,277 +1755,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:L17"/>
+  <dimension ref="A3:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="19"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="20"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="18"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="27"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:12" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="17">
         <v>45039</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" ht="343.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>45039</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="244.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45040</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="D11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" ht="361.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8">
+        <v>45041</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="D12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
-    <row r="10" spans="1:12" ht="378" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>2</v>
-      </c>
-      <c r="B10" s="37">
-        <v>45039</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="39" t="s">
+    <row r="13" spans="1:12" ht="152.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
+        <v>5</v>
+      </c>
+      <c r="B13" s="38">
+        <v>45042</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
-    <row r="11" spans="1:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>3</v>
-      </c>
-      <c r="B11" s="12">
-        <v>45040</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>4</v>
-      </c>
-      <c r="B12" s="12">
-        <v>45041</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
-    <row r="13" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>5</v>
-      </c>
-      <c r="B13" s="12">
-        <v>45042</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="13"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/APITesting/APITesting/Test Plan Test Log Template API Tests.xlsx
+++ b/APITesting/APITesting/Test Plan Test Log Template API Tests.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan McKee\Desktop\SET_DIPLOMA\APITesting\APITesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CFC5D8-B911-4A87-B74B-7D86807013EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0971B88F-6C01-4FBA-83C5-8125DC4BC280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Plan Staff API GET" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Plan Staff API" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1396,18 +1396,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1432,32 +1420,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1474,6 +1444,36 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1757,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1794,77 +1794,77 @@
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="30" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
+      <c r="A9" s="14">
         <v>1</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="13">
         <v>45039</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -1879,23 +1879,23 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" ht="343.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19">
+    <row r="10" spans="1:12" ht="409.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
       <c r="B10" s="8">
         <v>45039</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -1904,17 +1904,17 @@
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12" ht="244.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
       <c r="B11" s="8">
         <v>45040</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -1929,17 +1929,17 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="361.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19">
+      <c r="A12" s="15">
         <v>4</v>
       </c>
       <c r="B12" s="8">
         <v>45041</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -1954,17 +1954,17 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="152.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
+      <c r="A13" s="14">
         <v>5</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="28">
         <v>45042</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1979,33 +1979,38 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -2016,11 +2021,6 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
